--- a/mymodels/models.xlsx
+++ b/mymodels/models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>meanModel</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>v2+ ['adcode_model','adcode_bodyType','adcode_month','adcode_mt',  'bodyType_month','bodyType_mt','model_month','model_mt']多维分组特征</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4_lgb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2+只选1-4月的数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,6 +515,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
